--- a/week_3/one_tail_type_1_2.xlsx
+++ b/week_3/one_tail_type_1_2.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auffhammer/Library/CloudStorage/Dropbox/06_Teaching/MACSS/2024/code/public-repository-1/week_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770760B5-FC28-5245-BF89-9920F709810F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DBD672-A83F-2344-947A-30646D333DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="17020" xr2:uid="{9585A382-6EE0-D741-A2C8-A4408C5B2FE5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16760" activeTab="2" xr2:uid="{9585A382-6EE0-D741-A2C8-A4408C5B2FE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Parameters</t>
   </si>
@@ -66,6 +68,27 @@
   </si>
   <si>
     <t>Type II z-score</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Sd</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha </t>
+  </si>
+  <si>
+    <t>Decision rule</t>
+  </si>
+  <si>
+    <t>Stderror</t>
+  </si>
+  <si>
+    <t>Test Stat</t>
   </si>
 </sst>
 </file>
@@ -73,8 +96,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -123,8 +146,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E2352D-E09E-9843-96FD-864C70BDFA5D}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView zoomScale="287" zoomScaleNormal="287" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -553,4 +576,120 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D6E97B-EE73-5E46-8E4F-1D7C95877F82}">
+  <dimension ref="B1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>200.62</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>-20.6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>18.87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <f>SUM(B1:B3)</f>
+        <v>198.89000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f>53*5.5</f>
+        <v>291.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C913C02-8E6A-494D-99E4-4C4DD517E726}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>12937.839125000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>2049.3897827675023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>B2/SQRT(B3)</f>
+        <v>241.52290211488776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f>(B1-12000)/B5</f>
+        <v>3.8830235840487384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <f>TDIST(B6,71,1)</f>
+        <v>1.1441091786204925E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>